--- a/Datos/indice.xlsx
+++ b/Datos/indice.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AD8DA6-25A2-4899-B686-58550172ECF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,22 +17,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Casos</t>
+    <t>Casos totales</t>
   </si>
   <si>
-    <t>Fallecimientos</t>
+    <t>Fallecimientos totales</t>
   </si>
   <si>
-    <t>Casos día 11</t>
+    <t>Casos día 11 de abril</t>
   </si>
   <si>
-    <t>Fallecimientos día 11</t>
+    <t>Fallecimientos día 11 de abril</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,8 +62,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +158,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -191,6 +210,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,46 +402,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>161852</v>
+        <v>166019</v>
       </c>
       <c r="B2">
-        <v>16353</v>
+        <v>16972</v>
       </c>
       <c r="C2">
-        <v>4830</v>
+        <v>4167</v>
       </c>
       <c r="D2">
-        <v>510</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
